--- a/biology/Zoologie/Carphophis_amoenus/Carphophis_amoenus.xlsx
+++ b/biology/Zoologie/Carphophis_amoenus/Carphophis_amoenus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carphophis amoenus est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carphophis amoenus est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis[1]. Elle se rencontre au Connecticut, dans l'État de New York, en Pennsylvanie, au New Jersey, au Maryland, au Delaware, en Ohio, en Indiana, en Illinois, en Virginie-Occidentale, en Virginie, au Kentucky, au Tennessee, en Caroline du Nord, en Caroline du Sud, en Géorgie, en Alabama, au Mississippi, en Louisiane et au Missouri. Sa présence est incertaine en Arkansas.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre au Connecticut, dans l'État de New York, en Pennsylvanie, au New Jersey, au Maryland, au Delaware, en Ohio, en Indiana, en Illinois, en Virginie-Occidentale, en Virginie, au Kentucky, au Tennessee, en Caroline du Nord, en Caroline du Sud, en Géorgie, en Alabama, au Mississippi, en Louisiane et au Missouri. Sa présence est incertaine en Arkansas.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent ovipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent ovipare.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (28 août 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (28 août 2013) :
 Carphophis amoenus amoenus (Say, 1825)
 Carphophis amoenus helenae (Kennicott, 1859)</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Carphophis amoenus helenae est nommée en l'honneur d'Helen Teunison[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Carphophis amoenus helenae est nommée en l'honneur d'Helen Teunison.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Say, 1825 "1824" : Description of three new species of Coluber, inhabiting the United States. Journal of the Academy of Natural Sciences of Philadelphia, vol. 4, no 2, p. 237-242 (texte intégral).
 Kennicott, 1859 : Notes on coluber calligaster of Say, and a description of a new species of Serpents in the collection of the north Western University of Evanston, ill.. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 11, p. 98-100 (texte intégral).</t>
